--- a/ebay/input/seller.xlsx
+++ b/ebay/input/seller.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christopher\Coding\Web Scraping\Ebay\ebay\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ha\Desktop\ebay\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61DDABA-835F-466C-ADE9-EA08D9C15772}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9ABF9-5368-401B-BC6D-DAD3547E42BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26A9754B-B3CF-4322-908E-D66C8F624ADD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{26A9754B-B3CF-4322-908E-D66C8F624ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,25 +31,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>IDS</t>
   </si>
   <si>
-    <t>coocogarder</t>
-  </si>
-  <si>
     <t>sodifif11</t>
   </si>
   <si>
     <t>pricespei98</t>
+  </si>
+  <si>
+    <t>ianGoodStore</t>
+  </si>
+  <si>
+    <t>poy_slau2</t>
+  </si>
+  <si>
+    <t>100shopcam</t>
+  </si>
+  <si>
+    <t>noquicker1</t>
+  </si>
+  <si>
+    <t>harmsay8</t>
+  </si>
+  <si>
+    <t>glcamp99</t>
+  </si>
+  <si>
+    <t>adpa_5595</t>
+  </si>
+  <si>
+    <t>ryhol-1662</t>
+  </si>
+  <si>
+    <t>juswil_975</t>
+  </si>
+  <si>
+    <t>alaslit0</t>
+  </si>
+  <si>
+    <t>natre-8314</t>
+  </si>
+  <si>
+    <t>Safetobe-3</t>
+  </si>
+  <si>
+    <t>loveyse8</t>
+  </si>
+  <si>
+    <t>flossie_21</t>
+  </si>
+  <si>
+    <t>dietsch_4102</t>
+  </si>
+  <si>
+    <t>UK51</t>
+  </si>
+  <si>
+    <t>UK64</t>
+  </si>
+  <si>
+    <t>UK94</t>
+  </si>
+  <si>
+    <t>UK95</t>
+  </si>
+  <si>
+    <t>UK96</t>
+  </si>
+  <si>
+    <t>UK98</t>
+  </si>
+  <si>
+    <t>UK100</t>
+  </si>
+  <si>
+    <t>UK107</t>
+  </si>
+  <si>
+    <t>UK108</t>
+  </si>
+  <si>
+    <t>UK110</t>
+  </si>
+  <si>
+    <t>UK111</t>
+  </si>
+  <si>
+    <t>UK112</t>
+  </si>
+  <si>
+    <t>UK113</t>
+  </si>
+  <si>
+    <t>UK114</t>
+  </si>
+  <si>
+    <t>UK116</t>
+  </si>
+  <si>
+    <t>UK120</t>
+  </si>
+  <si>
+    <t>UK121</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,23 +154,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,17 +201,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,39 +548,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CB9868-8BF8-45B0-8B41-651C47D1A9BB}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.ebay.co.uk/usr/coocogarder?_trksid=p2047675.l2559" xr:uid="{E5087652-F613-4D37-8032-1F98557BCB5F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>